--- a/features/微众商品管理系统/运营端/运营端用户故事.xlsx
+++ b/features/微众商品管理系统/运营端/运营端用户故事.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="商品分类" sheetId="1" r:id="rId1"/>
     <sheet name="标签管理" sheetId="2" r:id="rId2"/>
     <sheet name="商品" sheetId="3" r:id="rId3"/>
-    <sheet name="订单" sheetId="4" r:id="rId4"/>
-    <sheet name="站内消息" sheetId="8" r:id="rId5"/>
+    <sheet name="站内消息" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="191">
   <si>
     <t>author</t>
   </si>
@@ -520,21 +519,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>运营同步商品</t>
-  </si>
-  <si>
-    <t>运营删除商品</t>
-  </si>
-  <si>
-    <t>运营驳回修改商品</t>
-  </si>
-  <si>
-    <t>运营给商品配置标签</t>
-  </si>
-  <si>
-    <t>运营修改固定底价客户商品的售价</t>
-  </si>
-  <si>
     <t>运营端商品列表的查询</t>
   </si>
   <si>
@@ -578,10 +562,6 @@
   <si>
     <t>弹框关闭，商品同步成功
 对应weapp的商品池中显示同步的商品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无feature（前端验证）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -693,6 +673,222 @@
   <si>
     <t>feature路径:\Git\new_feature_test\项目文档\微众商品管理系统\运营端\站内消息
 feature名称:delete_instation_message.feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营删除商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示确认弹框“确定删除么？ 确定/取消”
+点击【取消】弹框关闭，商品不删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【确定】，弹框关闭，商品删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营驳回修改商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表中存在商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击待入库（已入库，已停售或入库驳回）状态商品操作列中的【删除商品】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示‘商品驳回’弹框，弹框中有已定义好的驳回原因和自定义输入框，下方显示‘确定/取消’按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击待入库状态商品操作列中的【驳回修改】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面上方显示红条校验提示“请添加驳回原因！”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击待入库状态商品操作列中的【驳回修改】，显示弹框后选择或填写驳回原因后点击【确定】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营给商品配置标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表中存在商品
+已创建商品标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击商品下方的【配置标签】按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击商品下方的【配置标签】按钮，选择标签后点击【确认】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.弹框关闭，商品驳回成功，运营端商品列商品状态为‘入库驳回’，鼠标悬浮显示驳回原因记录
+b.客户端商品列表对应商品显示‘入库驳回&gt;&gt;’鼠标悬浮显示驳回原因记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a.显示‘配置标签’弹框；
+b.框中下拉框中显示所有的标签分类，选择标签分类后下方展示其对应的标签值；
+c.弹框右下角显示【确定】按钮
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品标签配置成功
+weapp商品池中对应商品显示配置的标签信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营修改固定底价客户商品的售价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品售价修改成功
+客户端商品列表显示修改后的商品售价
+weapp对应商品售价随之变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击固定底价客户商品名称链接进入商品详情页，修改商品售价（售价小于结算价）并保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面上方红条提示“结算价不能大于商品售价，请重新输入！”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击固定底价客户商品名称链接进入商品详情页，修改商品售价（售价大于等于结算价）并保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置查询条件后点击【查询】按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示正确的查询结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营在商品更新列表驳回修改商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品更新列表存在商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击商品操作列的【驳回修改】商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示‘商品驳回’弹框，弹框中有已定义好的驳回原因和自定义输入框，下方显示‘确定/取消’按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击待入库状态商品操作列中的【驳回修改】，显示弹框后直接点击【确定】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a.弹框关闭，商品驳回成功，运营端商品更新列表中该商品消失
+b.运营端商品列商品状态为‘修改驳回’，鼠标悬浮显示驳回原因记录
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c.客户端商品列表对应商品的变化（目前是没有变化，需求还未做）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature分支：panda_feature
+feature路径：:\Git\panda\features\微众商品管理系统\运营端\商品
+feature名称：synchronous_product.feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无feature（前端验证）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无feature（前端验证）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature分支：panda_feature
+feature路径：:\Git\panda\features\微众商品管理系统\运营端\商品
+feature名称：synchronous_product.feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无feature（前端验证）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature分支：panda_feature
+feature路径：:\Git\panda\features\微众商品管理系统\运营端\商品
+feature名称：delete_product.feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无feature（前端验证）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature分支：panda_feature
+feature路径：:\Git\panda\features\微众商品管理系统\运营端\商品
+feature名称：reject_product_at_product_list.feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature分支：panda_feature
+feature路径：:\Git\panda\features\微众商品管理系统\运营端\商品
+feature名称：set_label_for_product.feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature分支：panda_feature
+feature路径：:\Git\panda\features\微众商品管理系统\运营端\商品
+feature名称：edit_product_price.feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature分支：panda_feature
+feature路径：:\Git\panda\features\微众商品管理系统\运营端\商品
+feature名称：reject_product_at_product_update_list.feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature分支：panda_feature
+feature路径：:\Git\panda\features\微众商品管理系统\运营端\商品
+feature名称：product_list_query.feature</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +994,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -858,15 +1054,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -874,7 +1061,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -920,34 +1107,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -957,12 +1143,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,6 +1151,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1331,11 +1517,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="20"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1347,7 +1533,7 @@
       <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="19" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="6"/>
@@ -1356,9 +1542,9 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="21"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1368,19 +1554,19 @@
       <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="21" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1398,10 +1584,10 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="7" t="s">
         <v>41</v>
       </c>
@@ -1417,17 +1603,17 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="19" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="6"/>
@@ -1436,9 +1622,9 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1448,19 +1634,19 @@
       <c r="F7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="21" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1469,7 +1655,7 @@
       <c r="F8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="19" t="s">
         <v>66</v>
       </c>
       <c r="H8" s="6"/>
@@ -1478,34 +1664,34 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="19" t="s">
         <v>67</v>
       </c>
       <c r="H10" s="6"/>
@@ -1514,25 +1700,25 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="6" t="s">
         <v>38</v>
       </c>
@@ -1554,15 +1740,15 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="21" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -1577,15 +1763,15 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="19" t="s">
         <v>69</v>
       </c>
       <c r="H14" s="6"/>
@@ -1594,29 +1780,29 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="23"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="21" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -1634,10 +1820,10 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="6" t="s">
         <v>53</v>
       </c>
@@ -1653,10 +1839,10 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="6" t="s">
         <v>59</v>
       </c>
@@ -1672,8 +1858,8 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1685,12 +1871,12 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="21" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="25" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -1708,17 +1894,17 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="10" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="19" t="s">
         <v>73</v>
       </c>
       <c r="H21" s="6"/>
@@ -1727,17 +1913,17 @@
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="23"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1745,6 +1931,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C4:C7"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E13:E14"/>
@@ -1755,16 +1951,6 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C4:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1831,11 +2017,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -1847,7 +2033,7 @@
       <c r="F2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="19" t="s">
         <v>81</v>
       </c>
       <c r="H2" s="6"/>
@@ -1856,9 +2042,9 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="21"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="7" t="s">
         <v>77</v>
       </c>
@@ -1868,15 +2054,15 @@
       <c r="F3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="6" t="s">
         <v>86</v>
       </c>
@@ -1898,8 +2084,8 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
@@ -1917,12 +2103,12 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>96</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1940,10 +2126,10 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="7" t="s">
         <v>91</v>
       </c>
@@ -1959,10 +2145,10 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="7" t="s">
         <v>92</v>
       </c>
@@ -1978,15 +2164,15 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="21" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>99</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -2001,15 +2187,15 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="19" t="s">
         <v>113</v>
       </c>
       <c r="H10" s="6"/>
@@ -2018,32 +2204,32 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="21" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>106</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -2058,15 +2244,15 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="19" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="6"/>
@@ -2075,17 +2261,17 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="23"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -2115,10 +2301,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2127,9 +2313,9 @@
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="57.5" customWidth="1"/>
+    <col min="5" max="5" width="71.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.625" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
     <col min="10" max="10" width="16.125" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
@@ -2171,91 +2357,395 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C2" s="31" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="27"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="27"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="27"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="C3" s="30"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C4" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
+      <c r="G5" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="27"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="27"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="27"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>121</v>
-      </c>
+      <c r="D15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="27"/>
+      <c r="B17" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="27"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="18">
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2264,22 +2754,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -2337,22 +2811,22 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>134</v>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -2360,18 +2834,18 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="15" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -2379,22 +2853,22 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -2402,22 +2876,22 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>146</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -2425,18 +2899,18 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>

--- a/features/微众商品管理系统/运营端/运营端用户故事.xlsx
+++ b/features/微众商品管理系统/运营端/运营端用户故事.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="商品分类" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="203">
   <si>
     <t>author</t>
   </si>
@@ -781,15 +781,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>运营在商品更新列表驳回修改商品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>商品更新列表存在商品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击商品操作列的【驳回修改】商品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -889,6 +881,68 @@
     <t>feature分支：panda_feature
 feature路径：:\Git\panda\features\微众商品管理系统\运营端\商品
 feature名称：product_list_query.feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营在商品更新列表【驳回修改】商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营在商品更新列表【商品更新】商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品更新列表存在商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击商品操作列的【驳回修改】按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击商品操作列的【商品更新】按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示确认弹框“确定更新么？ 确定/取消”
+点击【取消】，弹框关闭，商品不更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【确定】，弹框关闭，该商品从商品更新列表消失
+weapp端对应该商品信息更新成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营在商品更新列表进行查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品更新列表存在商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置查询条件并点击【查询】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示正确的查询结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无feature（前端验证）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature分支：panda_feature
+feature路径：:\Git\panda\features\微众商品管理系统\运营端\商品
+feature名称：update_product.feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature分支：panda_feature
+feature路径：:\Git\panda\features\微众商品管理系统\运营端\商品
+feature名称：update_product_list_query.feature</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1061,7 +1115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1113,12 +1167,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1128,12 +1194,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1143,6 +1203,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1152,10 +1215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1517,11 +1577,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1533,7 +1593,7 @@
       <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="6"/>
@@ -1542,9 +1602,9 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1554,19 +1614,19 @@
       <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="20" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1584,10 +1644,10 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="7" t="s">
         <v>41</v>
       </c>
@@ -1603,17 +1663,17 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="6"/>
@@ -1622,9 +1682,9 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1634,19 +1694,19 @@
       <c r="F7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="20" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1655,7 +1715,7 @@
       <c r="F8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="24" t="s">
         <v>66</v>
       </c>
       <c r="H8" s="6"/>
@@ -1664,34 +1724,34 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="24" t="s">
         <v>67</v>
       </c>
       <c r="H10" s="6"/>
@@ -1700,25 +1760,25 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="6" t="s">
         <v>38</v>
       </c>
@@ -1740,15 +1800,15 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="20" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="22" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -1763,15 +1823,15 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="24" t="s">
         <v>69</v>
       </c>
       <c r="H14" s="6"/>
@@ -1780,29 +1840,29 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="20" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -1820,10 +1880,10 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="6" t="s">
         <v>53</v>
       </c>
@@ -1839,10 +1899,10 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="6" t="s">
         <v>59</v>
       </c>
@@ -1858,8 +1918,8 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1871,12 +1931,12 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="20" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -1894,17 +1954,17 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="24"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="25"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="10" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="24" t="s">
         <v>73</v>
       </c>
       <c r="H21" s="6"/>
@@ -1913,17 +1973,17 @@
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="24"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="25"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1931,6 +1991,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B2:B22"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="A2:A22"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -1941,16 +2011,6 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="C4:C7"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B2:B22"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2017,11 +2077,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -2033,7 +2093,7 @@
       <c r="F2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="24" t="s">
         <v>81</v>
       </c>
       <c r="H2" s="6"/>
@@ -2042,9 +2102,9 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="7" t="s">
         <v>77</v>
       </c>
@@ -2054,15 +2114,15 @@
       <c r="F3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="6" t="s">
         <v>86</v>
       </c>
@@ -2084,8 +2144,8 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
@@ -2103,12 +2163,12 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="22" t="s">
         <v>96</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -2126,10 +2186,10 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="7" t="s">
         <v>91</v>
       </c>
@@ -2145,10 +2205,10 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="7" t="s">
         <v>92</v>
       </c>
@@ -2164,15 +2224,15 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="20" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="22" t="s">
         <v>99</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -2187,15 +2247,15 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="24" t="s">
         <v>113</v>
       </c>
       <c r="H10" s="6"/>
@@ -2204,32 +2264,32 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="20" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="22" t="s">
         <v>106</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -2244,15 +2304,15 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="24" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="6"/>
@@ -2261,17 +2321,17 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -2301,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2312,7 +2372,7 @@
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="66.625" customWidth="1"/>
@@ -2357,14 +2417,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>121</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -2373,8 +2433,8 @@
       <c r="F2" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>179</v>
+      <c r="G2" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -2382,10 +2442,10 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="17" t="s">
         <v>118</v>
       </c>
@@ -2393,7 +2453,7 @@
         <v>126</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -2401,12 +2461,12 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="20" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="22" t="s">
         <v>122</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -2416,7 +2476,7 @@
         <v>124</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -2424,10 +2484,10 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="17" t="s">
         <v>125</v>
       </c>
@@ -2435,7 +2495,7 @@
         <v>126</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -2443,22 +2503,22 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>181</v>
+      <c r="G6" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -2466,16 +2526,16 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="20" t="s">
         <v>149</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -2483,22 +2543,22 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="20" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="22" t="s">
         <v>151</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>179</v>
+      <c r="F8" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>177</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -2506,18 +2566,18 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>183</v>
+      <c r="G9" s="35" t="s">
+        <v>181</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -2525,10 +2585,10 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="10" t="s">
         <v>156</v>
       </c>
@@ -2536,7 +2596,7 @@
         <v>161</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -2544,22 +2604,22 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="20" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="24" t="s">
         <v>158</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>179</v>
+      <c r="G11" s="35" t="s">
+        <v>177</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -2567,10 +2627,10 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="10" t="s">
         <v>160</v>
       </c>
@@ -2578,7 +2638,7 @@
         <v>163</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -2586,22 +2646,22 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="20" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="22" t="s">
         <v>151</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>181</v>
+      <c r="G13" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2609,10 +2669,10 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="10" t="s">
         <v>168</v>
       </c>
@@ -2620,7 +2680,7 @@
         <v>165</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -2628,8 +2688,8 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="6" t="s">
         <v>116</v>
       </c>
@@ -2639,11 +2699,11 @@
       <c r="E15" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="20" t="s">
         <v>170</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2651,7 +2711,7 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2664,24 +2724,24 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="20" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="E17" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>179</v>
+      <c r="G17" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -2689,18 +2749,18 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>179</v>
+      <c r="G18" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -2708,31 +2768,100 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="81" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="10" t="s">
         <v>156</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
+    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="29"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="29"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="30"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B19"/>
     <mergeCell ref="B2:B15"/>
-    <mergeCell ref="A2:A19"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D11:D12"/>
@@ -2743,9 +2872,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2757,7 +2883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -2811,12 +2937,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="32" t="s">
         <v>128</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -2834,10 +2960,10 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="15" t="s">
         <v>131</v>
       </c>
@@ -2853,8 +2979,8 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="15" t="s">
         <v>137</v>
       </c>
@@ -2876,12 +3002,12 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="15" t="s">
@@ -2899,10 +3025,10 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="15" t="s">
         <v>141</v>
       </c>

--- a/features/微众商品管理系统/运营端/运营端用户故事.xlsx
+++ b/features/微众商品管理系统/运营端/运营端用户故事.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="商品分类" sheetId="1" r:id="rId1"/>
     <sheet name="标签管理" sheetId="2" r:id="rId2"/>
     <sheet name="商品" sheetId="3" r:id="rId3"/>
-    <sheet name="站内消息" sheetId="8" r:id="rId4"/>
+    <sheet name="订单" sheetId="9" r:id="rId4"/>
+    <sheet name="站内消息" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="214">
   <si>
     <t>author</t>
   </si>
@@ -943,6 +944,54 @@
     <t>feature分支：panda_feature
 feature路径：:\Git\panda\features\微众商品管理系统\运营端\商品
 feature名称：update_product_list_query.feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营查看订单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营在订单列表进行查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表存在订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营访问“订单”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得订单列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表存在订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营设置订单查询条件并点击【查询】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得正确的查询结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature分支：panda_feature
+feature路径：:\Git\panda\features\微众商品管理系统\运营端\订单
+feature名称：order_list.feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature分支：panda_feature
+feature路径：:\Git\panda\features\微众商品管理系统\运营端\订单
+feature名称：order_list_query.feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1115,7 +1164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1174,26 +1223,32 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1214,9 +1269,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1577,11 +1629,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1593,7 +1645,7 @@
       <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="6"/>
@@ -1602,9 +1654,9 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="26"/>
-      <c r="C3" s="22"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1614,19 +1666,19 @@
       <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="26"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1644,10 +1696,10 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="26"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="7" t="s">
         <v>41</v>
       </c>
@@ -1663,17 +1715,17 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="6"/>
@@ -1682,9 +1734,9 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="22"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1694,19 +1746,19 @@
       <c r="F7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1715,7 +1767,7 @@
       <c r="F8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>66</v>
       </c>
       <c r="H8" s="6"/>
@@ -1724,34 +1776,34 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>67</v>
       </c>
       <c r="H10" s="6"/>
@@ -1760,24 +1812,24 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="26"/>
       <c r="C12" s="6" t="s">
         <v>38</v>
@@ -1800,15 +1852,15 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="24" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -1823,15 +1875,15 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>69</v>
       </c>
       <c r="H14" s="6"/>
@@ -1840,29 +1892,29 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="24" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -1880,10 +1932,10 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="26"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="6" t="s">
         <v>53</v>
       </c>
@@ -1899,10 +1951,10 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="6" t="s">
         <v>59</v>
       </c>
@@ -1918,7 +1970,7 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="26"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1931,12 +1983,12 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="29" t="s">
         <v>58</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -1954,17 +2006,17 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="10" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="23" t="s">
         <v>73</v>
       </c>
       <c r="H21" s="6"/>
@@ -1973,17 +2025,17 @@
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1991,6 +2043,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C4:C7"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E13:E14"/>
@@ -2001,16 +2063,6 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C4:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2077,11 +2129,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -2093,7 +2145,7 @@
       <c r="F2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>81</v>
       </c>
       <c r="H2" s="6"/>
@@ -2102,9 +2154,9 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="26"/>
-      <c r="C3" s="22"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="7" t="s">
         <v>77</v>
       </c>
@@ -2114,14 +2166,14 @@
       <c r="F3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="26"/>
       <c r="C4" s="6" t="s">
         <v>86</v>
@@ -2144,7 +2196,7 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="26"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -2163,12 +2215,12 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="24" t="s">
         <v>96</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -2186,10 +2238,10 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="7" t="s">
         <v>91</v>
       </c>
@@ -2205,10 +2257,10 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="7" t="s">
         <v>92</v>
       </c>
@@ -2224,15 +2276,15 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="24" t="s">
         <v>99</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -2247,15 +2299,15 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>113</v>
       </c>
       <c r="H10" s="6"/>
@@ -2264,32 +2316,32 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="24" t="s">
         <v>106</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -2304,15 +2356,15 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="6"/>
@@ -2321,17 +2373,17 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -2363,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2417,14 +2469,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>121</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -2442,10 +2494,10 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="26"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="17" t="s">
         <v>118</v>
       </c>
@@ -2461,12 +2513,12 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="26"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>122</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -2484,10 +2536,10 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="26"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="17" t="s">
         <v>125</v>
       </c>
@@ -2503,15 +2555,15 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="33" t="s">
         <v>152</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -2526,11 +2578,11 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="31"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="20" t="s">
         <v>149</v>
       </c>
@@ -2543,12 +2595,12 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="24" t="s">
         <v>151</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -2557,7 +2609,7 @@
       <c r="F8" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="22" t="s">
         <v>177</v>
       </c>
       <c r="H8" s="6"/>
@@ -2566,17 +2618,17 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="10" t="s">
         <v>173</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="22" t="s">
         <v>181</v>
       </c>
       <c r="H9" s="6"/>
@@ -2585,10 +2637,10 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="10" t="s">
         <v>156</v>
       </c>
@@ -2604,12 +2656,12 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>158</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -2618,7 +2670,7 @@
       <c r="F11" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="22" t="s">
         <v>177</v>
       </c>
       <c r="H11" s="6"/>
@@ -2627,10 +2679,10 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="10" t="s">
         <v>160</v>
       </c>
@@ -2646,12 +2698,12 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="24" t="s">
         <v>151</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -2669,10 +2721,10 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="10" t="s">
         <v>168</v>
       </c>
@@ -2688,7 +2740,7 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="27"/>
       <c r="C15" s="6" t="s">
         <v>116</v>
@@ -2711,7 +2763,7 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2724,14 +2776,14 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="24" t="s">
         <v>171</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -2749,10 +2801,10 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="10" t="s">
         <v>173</v>
       </c>
@@ -2768,10 +2820,10 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="81" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="26"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="10" t="s">
         <v>156</v>
       </c>
@@ -2787,15 +2839,15 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="33" t="s">
         <v>193</v>
       </c>
       <c r="F20" s="20" t="s">
@@ -2810,11 +2862,11 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="31"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="20" t="s">
         <v>195</v>
       </c>
@@ -2827,7 +2879,7 @@
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="30"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="27"/>
       <c r="C22" s="6" t="s">
         <v>196</v>
@@ -2851,6 +2903,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="A2:A22"/>
     <mergeCell ref="E6:E7"/>
@@ -2867,11 +2924,6 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2880,6 +2932,120 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.25" customWidth="1"/>
+    <col min="8" max="8" width="23.25" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="23.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -2937,12 +3103,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="33" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>128</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -2960,10 +3126,10 @@
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="15" t="s">
         <v>131</v>
       </c>
@@ -2979,8 +3145,8 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="15" t="s">
         <v>137</v>
       </c>
@@ -3002,12 +3168,12 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="22" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="24" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="15" t="s">
@@ -3025,10 +3191,10 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="15" t="s">
         <v>141</v>
       </c>
